--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -543,10 +543,10 @@
         <v>0.575142</v>
       </c>
       <c r="I2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J2">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N2">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O2">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P2">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q2">
-        <v>0.008009874824666668</v>
+        <v>0.006295504332000001</v>
       </c>
       <c r="R2">
-        <v>0.07208887342200002</v>
+        <v>0.056659538988</v>
       </c>
       <c r="S2">
-        <v>0.0009023112812719741</v>
+        <v>0.0005759376939879095</v>
       </c>
       <c r="T2">
-        <v>0.000902311281271974</v>
+        <v>0.0005759376939879097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.575142</v>
       </c>
       <c r="I3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J3">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P3">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q3">
         <v>0.03481238669</v>
@@ -635,10 +635,10 @@
         <v>0.31331148021</v>
       </c>
       <c r="S3">
-        <v>0.003921610502782922</v>
+        <v>0.003184775143516491</v>
       </c>
       <c r="T3">
-        <v>0.003921610502782921</v>
+        <v>0.003184775143516492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.575142</v>
       </c>
       <c r="I4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J4">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N4">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O4">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P4">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q4">
-        <v>0.7098714418773333</v>
+        <v>0.7313185509620002</v>
       </c>
       <c r="R4">
-        <v>6.388842976895999</v>
+        <v>6.581866958658001</v>
       </c>
       <c r="S4">
-        <v>0.07996691886946884</v>
+        <v>0.0669039202579384</v>
       </c>
       <c r="T4">
-        <v>0.07996691886946881</v>
+        <v>0.06690392025793841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.575142</v>
       </c>
       <c r="I5">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451403</v>
       </c>
       <c r="J5">
-        <v>0.09369188973541917</v>
+        <v>0.08059215988451404</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N5">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O5">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P5">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q5">
-        <v>0.07901518071866667</v>
+        <v>0.1085165783713333</v>
       </c>
       <c r="R5">
-        <v>0.711136626468</v>
+        <v>0.9766492053419999</v>
       </c>
       <c r="S5">
-        <v>0.008901049081895448</v>
+        <v>0.009927526789071229</v>
       </c>
       <c r="T5">
-        <v>0.008901049081895446</v>
+        <v>0.009927526789071229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H6">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I6">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J6">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N6">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O6">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P6">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q6">
-        <v>0.07748178136122223</v>
+        <v>0.071820088314</v>
       </c>
       <c r="R6">
-        <v>0.697336032251</v>
+        <v>0.646380794826</v>
       </c>
       <c r="S6">
-        <v>0.008728311858255389</v>
+        <v>0.006570386400231797</v>
       </c>
       <c r="T6">
-        <v>0.008728311858255388</v>
+        <v>0.006570386400231798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H7">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I7">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J7">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P7">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q7">
-        <v>0.3367500483116667</v>
+        <v>0.397145098255</v>
       </c>
       <c r="R7">
-        <v>3.030750434805</v>
+        <v>3.574305884295</v>
       </c>
       <c r="S7">
-        <v>0.037934845950997</v>
+        <v>0.03633240801772614</v>
       </c>
       <c r="T7">
-        <v>0.03793484595099699</v>
+        <v>0.03633240801772614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H8">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I8">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J8">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N8">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O8">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P8">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q8">
-        <v>6.866786942129777</v>
+        <v>8.342995278199</v>
       </c>
       <c r="R8">
-        <v>61.80108247916799</v>
+        <v>75.086957503791</v>
       </c>
       <c r="S8">
-        <v>0.7735425908147856</v>
+        <v>0.7632502827539869</v>
       </c>
       <c r="T8">
-        <v>0.7735425908147854</v>
+        <v>0.763250282753987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.854503666666667</v>
+        <v>2.187103</v>
       </c>
       <c r="H9">
-        <v>5.563511</v>
+        <v>6.561309</v>
       </c>
       <c r="I9">
-        <v>0.9063081102645809</v>
+        <v>0.9194078401154859</v>
       </c>
       <c r="J9">
-        <v>0.9063081102645809</v>
+        <v>0.919407840115486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N9">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O9">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P9">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q9">
-        <v>0.7643361588882223</v>
+        <v>1.237973930467667</v>
       </c>
       <c r="R9">
-        <v>6.879025429994</v>
+        <v>11.141765374209</v>
       </c>
       <c r="S9">
-        <v>0.08610236164054307</v>
+        <v>0.1132547629435412</v>
       </c>
       <c r="T9">
-        <v>0.08610236164054305</v>
+        <v>0.1132547629435412</v>
       </c>
     </row>
   </sheetData>
